--- a/algieba/test/system_test.xlsx
+++ b/algieba/test/system_test.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="家計簿を管理する" sheetId="1" r:id="rId1"/>
     <sheet name="収支を計算する" sheetId="4" r:id="rId2"/>
+    <sheet name="ブラウザから操作する" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -362,6 +363,186 @@
   <si>
     <t>status: ok
 body: []</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webページにアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を登録する</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ページ上部に入力欄が表示されている
+・入力欄から下に家計簿が表示されている</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付： 1000/01/01
+内容： システムテスト用データ
+カテゴリ: テスト
+金額： 100
+"収入"を選択</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付： 1000-01-01
+内容： システムテスト用データ
+カテゴリ: テスト
+金額： 100
+"収入"を選択</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ページ上部に入力欄が表示されている
+・入力欄から下に家計簿が表示されている
+・表示されている家計簿の数が変わっていない</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ページ上部に入力欄が表示されている
+・入力欄から下に家計簿が表示されている
+・表示されている家計簿の数が１つ増えている</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>フ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -688,7 +869,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="205">
+  <cellStyleXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -894,8 +1075,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -919,33 +1106,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -955,8 +1115,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="205">
+  <cellStyles count="211">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1059,6 +1249,9 @@
     <cellStyle name="ハイパーリンク" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1162,6 +1355,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="210" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1492,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1531,31 +1727,31 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="83">
-      <c r="B3" s="11">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="109">
-      <c r="B4" s="12"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1567,10 +1763,10 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="135">
-      <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1582,10 +1778,10 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="135">
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1597,10 +1793,10 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="135">
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1612,10 +1808,10 @@
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="14"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1627,10 +1823,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="32" thickBot="1">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1702,17 +1898,17 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="109">
-      <c r="B3" s="11">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1723,10 +1919,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="109">
-      <c r="B4" s="12"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1738,10 +1934,10 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="109">
-      <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1753,10 +1949,10 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="317">
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1768,10 +1964,10 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="57">
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1783,10 +1979,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="70">
-      <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="14"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
@@ -1798,10 +1994,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="71" thickBot="1">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="8" t="s">
         <v>29</v>
       </c>
@@ -1828,4 +2024,111 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="47.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" customWidth="1"/>
+    <col min="8" max="8" width="56.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="19" thickBot="1"/>
+    <row r="2" spans="2:8" ht="19" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="31">
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="70">
+      <c r="B4" s="18"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="71" thickBot="1">
+      <c r="B5" s="19"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/algieba/test/system_test.xlsx
+++ b/algieba/test/system_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="家計簿を管理する" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -119,57 +119,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>acounts: {
-  account_type: 'expense',
-  date: '1000-01-01',
-  content: 'システムテスト用データ'
-  category: 'システムテスト',
-  price: 100
-}</t>
-    <rPh sb="79" eb="80">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パラメーター</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>acounts: {
-  account_type: 'expense',
-  date: '01-01-1000',
-  category: 'システムテスト',
-  price: 100
-}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>condition: { 
-  date: '1000-01-01'
-}
-with: {
-  account_type: 'income'
-}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>content: 'システムテスト用データ'</t>
-    <rPh sb="17" eb="18">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>account_type: 'income'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>category: 'システムテスト'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>price: 100</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -179,43 +133,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: bad_request
-body: [
-  {error_code: 'absent_param_content'}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: created
-body: {
-  account_type: 'expense',
-  date: '1000-01-01',
-  content: 'システムテスト用データ',
-  category: 'システムテスト',
-  price: 100
-}</t>
-    <rPh sb="92" eb="93">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: ok
-body: [
-  {
-    account_type: 'expense',
-    date: '1000-01-01',
-    content: 'システムテスト用データ',
-    category: 'システムテスト',
-    price: 100
-  }
-]</t>
-    <rPh sb="97" eb="98">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -236,10 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>status: no_content</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>収支を計算する</t>
     <rPh sb="0" eb="2">
       <t>シュウシ</t>
@@ -250,10 +163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>収支を計算</t>
     <rPh sb="0" eb="2">
       <t>シュウシ</t>
@@ -264,35 +173,405 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>acounts: {
-  account_type: 'income',
+    <t>1.2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webページにアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を登録する</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ページ上部に入力欄が表示されている
+・入力欄から下に家計簿が表示されている</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付： 1000/01/01
+内容： システムテスト用データ
+カテゴリ: テスト
+金額： 100
+"収入"を選択</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付： 1000-01-01
+内容： システムテスト用データ
+カテゴリ: テスト
+金額： 100
+"収入"を選択</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ページ上部に入力欄が表示されている
+・入力欄から下に家計簿が表示されている
+・表示されている家計簿の数が変わっていない</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ページ上部に入力欄が表示されている
+・入力欄から下に家計簿が表示されている
+・表示されている家計簿の数が１つ増えている</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 400
+Body: [
+  {error_code: 'absent_param_content'}
+]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Body: {
+  acounts: {
+    account_type: 'expense',
+    date: '1000-01-01',
+    content: 'システムテスト用データ'
+    category: 'システムテスト',
+    price: 100
+  }
+}</t>
+    <rPh sb="95" eb="96">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Body: {
+  acounts: {
+    account_type: 'expense',
+    date: '01-01-1000',
+    category: 'algieba',
+    price: 100
+  }
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Body: {
+  acounts: {
+    account_type: 'expense',
+    date: '1000-01-01',
+    content: 'システムテスト用データ'
+    category: 'algieba',
+    price: 100
+  }
+}</t>
+    <rPh sb="95" eb="96">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 201
+Body: {
+  id: &lt;任意のID&gt;
+  account_type: 'expense',
   date: '1000-01-01',
-  content: 'システムテスト用データ'
-  category: 'システムテスト',
-  price: 1000
+  content: 'システムテスト用データ',
+  category: 'algieba',
+  price: 100
 }</t>
-    <rPh sb="78" eb="79">
+    <rPh sb="32" eb="34">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
       <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>acounts: {
-  account_type: 'income',
-  date: '1000-02-01',
-  content: 'システムテスト用データ'
+    <t>家計簿を取得</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Path:
+  id: &lt;登録した家計簿のID&gt;</t>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カケイボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 200
+Body: [
+  {
+    id: &lt;登録した家計簿のID&gt;
+    account_type: 'expense',
+    date: '1000-01-01',
+    content: 'システムテスト用データ',
+    category: 'システムテスト',
+    price: 100
+  }
+]</t>
+    <rPh sb="38" eb="40">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Path:
+  id: &lt;登録した家計簿のID&gt;
+Body: {
+  account_type: 'income'
+}</t>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カケイボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 200
+Body: [
+  {
+    id: &lt;登録した家計簿のID&gt;
+    account_type: 'income',
+    date: '1000-01-01',
+    content: 'システムテスト用データ',
+    category: 'システムテスト',
+    price: 100
+  }
+]</t>
+    <rPh sb="38" eb="40">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 204</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 404</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Body: {
+  acounts: {
+    account_type: 'income',
+    date: '1000-02-01',
+    content: 'システムテスト用データ'
+    category: 'システムテスト',
+    price: 100
+  }
+}</t>
+    <rPh sb="94" eb="95">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 201
+Body: {
+  id: &lt;任意のID&gt;
+  account_type: 'expense',
+  date: '1000-01-01',
+  content: 'システムテスト用データ',
   category: 'システムテスト',
   price: 100
 }</t>
-    <rPh sb="78" eb="79">
+    <rPh sb="32" eb="34">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
       <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>status: ok
-body: [
+    <t>Body: {
+  acounts: {
+    account_type: 'income',
+    date: '1000-01-01',
+    content: 'システムテスト用データ'
+    category: 'システムテスト',
+    price: 1000
+  }
+}</t>
+    <rPh sb="94" eb="95">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 200
+Body: [
   {
+    id: &lt;登録した家計簿のID&gt;
     account_type: 'income',
     date: '1000-02-01',
     content: 'システムテスト用データ',
@@ -300,6 +579,7 @@
     price: 100
   },
   {
+    id: &lt;登録した家計簿のID&gt;
     account_type: 'income',
     date: '1000-01-01',
     content: 'システムテスト用データ',
@@ -307,6 +587,7 @@
     price: 1000
   },
   {
+    id: &lt;登録した家計簿のID&gt;
     account_type: 'expense',
     date: '1000-01-01',
     content: 'システムテスト用データ',
@@ -314,235 +595,57 @@
     price: 100
   }
 ]</t>
-    <rPh sb="96" eb="97">
+    <rPh sb="38" eb="40">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
       <t>ヨウ</t>
     </rPh>
-    <rPh sb="225" eb="226">
+    <rPh sb="273" eb="274">
       <t>ヨウ</t>
     </rPh>
-    <rPh sb="349" eb="360">
+    <rPh sb="418" eb="429">
       <t>システムテ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>interval: 'yearly'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>interval: 'monthly'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>interval: 'daily'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: ok
-body: {
-  '1000': 1000
-}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: ok
-body: {
+    <t>Query:
+  interval: 'yearly'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 200
+Body: {'1000': 1000}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Query:
+  interval: 'monthly'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 200
+Body: {
   '1000-01': 900,
   '1000-02': 100,
 }</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>status: ok
-body: {
+    <t>Query:
+  interval: 'daily'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 200
+Body: {
   '1000-01-01': 900,
   '1000-02-01': 100
 }</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: ok
-body: []</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Webページにアクセス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を登録する</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ページ上部に入力欄が表示されている
-・入力欄から下に家計簿が表示されている</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウブ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付： 1000/01/01
-内容： システムテスト用データ
-カテゴリ: テスト
-金額： 100
-"収入"を選択</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ガク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シュウニュウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付： 1000-01-01
-内容： システムテスト用データ
-カテゴリ: テスト
-金額： 100
-"収入"を選択</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ガク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シュウニュウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ページ上部に入力欄が表示されている
-・入力欄から下に家計簿が表示されている
-・表示されている家計簿の数が変わっていない</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウブ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ページ上部に入力欄が表示されている
-・入力欄から下に家計簿が表示されている
-・表示されている家計簿の数が１つ増えている</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウブ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>フ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1115,6 +1218,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1140,9 +1246,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1688,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1720,118 +1823,118 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="83">
-      <c r="B3" s="17">
+    <row r="3" spans="2:8" ht="109">
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="122">
+      <c r="B4" s="19"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>22</v>
+      <c r="G4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="109">
-      <c r="B4" s="18"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>23</v>
+    <row r="5" spans="2:8" ht="148">
+      <c r="B5" s="19"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="135">
-      <c r="B5" s="18"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="135">
-      <c r="B6" s="18"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="15"/>
+    <row r="6" spans="2:8" ht="148">
+      <c r="B6" s="19"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="135">
-      <c r="B7" s="18"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="18"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="15"/>
+    <row r="8" spans="2:8" ht="31">
+      <c r="B8" s="19"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="32" thickBot="1">
-      <c r="B9" s="19"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="8" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>39</v>
@@ -1859,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1891,121 +1994,119 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="109">
-      <c r="B3" s="17">
+    <row r="3" spans="2:8" ht="122">
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="14"/>
+      <c r="C3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="15"/>
       <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="109">
-      <c r="B4" s="18"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="15"/>
+    <row r="4" spans="2:8" ht="122">
+      <c r="B4" s="19"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="109">
-      <c r="B5" s="18"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="15"/>
+    <row r="5" spans="2:8" ht="122">
+      <c r="B5" s="19"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="317">
-      <c r="B6" s="18"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="15"/>
+    <row r="6" spans="2:8" ht="356">
+      <c r="B6" s="19"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="57">
-      <c r="B7" s="18"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="15"/>
+    <row r="7" spans="2:8" ht="31">
+      <c r="B7" s="19"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="70">
-      <c r="B8" s="18"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="71" thickBot="1">
-      <c r="B9" s="19"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2030,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2062,57 +2163,57 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="31">
-      <c r="B3" s="17">
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="11" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="13" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="70">
-      <c r="B4" s="18"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="5" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="71" thickBot="1">
-      <c r="B5" s="19"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="23" t="s">
-        <v>42</v>
+      <c r="B5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/algieba/test/system_test.xlsx
+++ b/algieba/test/system_test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -646,6 +646,231 @@
   '1000-01-01': 900,
   '1000-02-01': 100
 }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を検索する</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Body: {
+  acounts: {
+    account_type: 'income',
+    date: '1000-01-01',
+    content: 'システムテスト用データ'
+    category: 'algieba',
+    price: 1000
+  }
+}</t>
+    <rPh sb="94" eb="95">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 201
+Body: {
+  id: &lt;任意のID&gt;
+  account_type: 'income',
+  date: '1000-01-01',
+  content: 'システムテスト用データ',
+  category: 'algieba',
+  price: 1000
+}</t>
+    <rPh sb="32" eb="34">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 200
+Body: [
+  {
+    id: &lt;登録した家計簿のID&gt;
+    account_type: 'income',
+    date: '1000-01-01',
+    content: 'システムテスト用データ',
+    category: 'algieba',
+    price: 1000
+  }
+]</t>
+    <rPh sb="38" eb="40">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 200
+Body: [
+  {
+    id: &lt;登録した家計簿のID&gt;
+    account_type: 'income',
+    date: '1000-01-01',
+    content: 'システムテスト用データ',
+    category: 'algieba',
+    price: 1000
+  },
+  {
+    id: &lt;登録した家計簿のID&gt;
+    account_type: 'expense',
+    date: '1000-01-01',
+    content: 'システムテスト用データ',
+    category: 'algieba',
+    price: 100
+  }
+]</t>
+    <rPh sb="38" eb="40">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Path:
+  id: &lt;最後に登録した家計簿のID&gt;
+Body: {
+  account_type: 'income'
+}</t>
+    <rPh sb="13" eb="15">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カケイボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 200
+Body: {
+  id: &lt;登録した家計簿のID&gt;
+  account_type: 'income',
+  date: '1000-01-01',
+  content: 'システムテスト用データ',
+  category: 'algieba',
+  price: 100
+}</t>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Query:
+  account_type: 'income'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Status Code: 200
+Body: [
+  {
+    id: &lt;登録した家計簿のID&gt;
+    account_type: 'income',
+    date: '1000-01-01',
+    content: 'システムテスト用データ',
+    category: 'algieba',
+    price: 1000
+  },
+  {
+    id: &lt;登録した家計簿のID&gt;
+    account_type: 'income',
+    date: '1000-01-01',
+    content: 'システムテスト用データ',
+    category: 'algieba',
+    price: 100
+  }
+]'
+ </t>
+    <rPh sb="38" eb="40">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="274" eb="275">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Path:
+  id: &lt;最後に登録した家計簿のID&gt;</t>
+    <rPh sb="13" eb="15">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カケイボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Path:
+  id: &lt;最初に登録した家計簿のID&gt;</t>
+    <rPh sb="13" eb="15">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カケイボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 204</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 204</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Code: 200
+Body: []</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Query:
+  date_after: '1000-01-01'</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -702,7 +927,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -971,6 +1196,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1185,7 +1477,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1247,6 +1539,62 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="211">
@@ -1789,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H9"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1925,27 +2273,168 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="32" thickBot="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="8" t="s">
+    <row r="9" spans="2:8" ht="31">
+      <c r="B9" s="19"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="26" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="10" spans="2:8" ht="122">
+      <c r="B10" s="27">
+        <v>2</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="148">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="122">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="252">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="122">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="265">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="31">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="31">
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="32" thickBot="1">
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E10:E18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="B10:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/algieba/test/system_test.xlsx
+++ b/algieba/test/system_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="家計簿を管理する" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -173,10 +173,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.2.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Webページにアクセス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -213,64 +209,6 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付： 1000/01/01
-内容： システムテスト用データ
-カテゴリ: テスト
-金額： 100
-"収入"を選択</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ガク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シュウニュウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付： 1000-01-01
-内容： システムテスト用データ
-カテゴリ: テスト
-金額： 100
-"収入"を選択</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ガク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シュウニュウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -871,6 +809,160 @@
   <si>
     <t>Query:
   date_after: '1000-01-01'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザから操作する</t>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿が49件登録されている</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付： 1000/01/01
+内容： システムテスト用データ
+カテゴリ: algieba
+金額： 100
+"収入"を選択</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付： 1000-01-01
+内容： システムテスト用データ
+カテゴリ: algieba
+金額： 100
+"収入"を選択</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付： 1000-01-02
+内容： システムテスト用データ
+カテゴリ: algieba
+金額： 100
+"支出"を選択</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ページ上部に入力欄が表示されている
+・入力欄から下に家計簿が表示されている
+・表示されている家計簿の数が変わっていない
+・ページングボタンが表示されている</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -927,7 +1019,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1263,6 +1355,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1477,7 +1584,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1513,33 +1620,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1548,18 +1628,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1580,21 +1648,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="211">
@@ -2139,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2171,83 +2317,83 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="109">
-      <c r="B3" s="18">
+      <c r="B3" s="29">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="122">
-      <c r="B4" s="19"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="148">
+      <c r="B5" s="30"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="148">
-      <c r="B5" s="19"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="6" spans="2:8" ht="148">
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="135">
-      <c r="B7" s="19"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="16"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2259,170 +2405,170 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="31">
-      <c r="B8" s="19"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="31">
-      <c r="B9" s="19"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>39</v>
+      <c r="B9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="122">
-      <c r="B10" s="27">
+      <c r="B10" s="37">
         <v>2</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="29" t="s">
+    </row>
+    <row r="11" spans="2:8" ht="148">
+      <c r="B11" s="37"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="122">
+      <c r="B12" s="37"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="252">
+      <c r="B13" s="37"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="33" t="s">
+    </row>
+    <row r="14" spans="2:8" ht="122">
+      <c r="B14" s="37"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="148">
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31" t="s">
+      <c r="H14" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="265">
+      <c r="B15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="122">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="252">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="33" t="s">
+      <c r="G15" s="21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="122">
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="34" t="s">
+      <c r="H15" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="33" t="s">
+    </row>
+    <row r="16" spans="2:8" ht="31">
+      <c r="B16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="31">
+      <c r="B17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="265">
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="31">
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="31">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="32" t="s">
+      <c r="H17" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="32" thickBot="1">
       <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43" t="s">
-        <v>66</v>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2483,119 +2629,119 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="122">
-      <c r="B3" s="18">
+      <c r="B3" s="29">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="122">
-      <c r="B4" s="19"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="122">
-      <c r="B5" s="19"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="16"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="356">
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="31">
-      <c r="B7" s="19"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="16"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="70">
-      <c r="B8" s="19"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="71" thickBot="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2618,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H5"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2659,58 +2805,77 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="31">
-      <c r="B3" s="18">
+      <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="48" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="70">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="70">
-      <c r="B4" s="19"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6" t="s">
+    <row r="5" spans="2:8" ht="70">
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="71" thickBot="1">
-      <c r="B5" s="20"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>26</v>
+    </row>
+    <row r="6" spans="2:8" ht="71" thickBot="1">
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
